--- a/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
+++ b/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterzhang/dev/github/excel-to-pdf/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B0D370-E78E-C744-9630-198395D87530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBEC322-1BAF-B34A-A559-D9B11DFDF28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>跨分公司固定资产调拨申请单</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>${p4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调入单位主管领导签字：	</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,12 +201,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +263,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -562,7 +579,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -597,9 +614,10 @@
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -645,13 +663,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="13"/>
       <c r="G4" s="12"/>
@@ -791,7 +811,7 @@
       <c r="G18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
@@ -799,6 +819,7 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
+++ b/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterzhang/dev/github/excel-to-pdf/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBEC322-1BAF-B34A-A559-D9B11DFDF28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E046C3-B220-474D-B209-5DEB3EA8D041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="1080" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产调拨明细表" sheetId="2" r:id="rId1"/>
@@ -164,7 +164,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +274,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -275,6 +284,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7891B1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,7 +593,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -626,7 +640,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">

--- a/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
+++ b/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterzhang/dev/github/excel-to-pdf/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E046C3-B220-474D-B209-5DEB3EA8D041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C9F26-9AD2-E846-87D6-1EAD7A71D4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1080" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产调拨明细表" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>跨分公司固定资产调拨申请单</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>${p4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">调入单位主管领导签字：	</t>
   </si>
 </sst>
 </file>
@@ -264,6 +261,12 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -271,12 +274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -593,7 +590,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -612,26 +609,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -640,7 +637,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -677,15 +674,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12" ht="14">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="D4" s="18"/>
       <c r="E4" s="10"/>
       <c r="F4" s="13"/>
       <c r="G4" s="12"/>
@@ -779,17 +774,17 @@
       <c r="L9" s="17"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
@@ -797,17 +792,17 @@
     <row r="13" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="15">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="2" t="s">
         <v>26</v>
       </c>
@@ -815,14 +810,14 @@
     <row r="16" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="17" spans="2:7" s="2" customFormat="1" ht="14"/>
     <row r="18" spans="2:7" s="2" customFormat="1" ht="15">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="F18" s="19" t="s">
+      <c r="C18" s="22"/>
+      <c r="F18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
+++ b/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterzhang/dev/github/excel-to-pdf/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C9F26-9AD2-E846-87D6-1EAD7A71D4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBC5C84-8D84-9045-9DE4-E438589BBCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,27 +238,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +256,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -590,7 +584,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -609,26 +603,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -637,7 +631,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -667,10 +661,10 @@
       <c r="J3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -678,113 +672,113 @@
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1">
       <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1">
       <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1">
       <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22">
         <f>SUM(G4:G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
@@ -792,17 +786,17 @@
     <row r="13" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="15">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="2" t="s">
         <v>26</v>
       </c>
@@ -810,14 +804,14 @@
     <row r="16" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="17" spans="2:7" s="2" customFormat="1" ht="14"/>
     <row r="18" spans="2:7" s="2" customFormat="1" ht="15">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="F18" s="21" t="s">
+      <c r="C18" s="16"/>
+      <c r="F18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
+++ b/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/case6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterzhang/dev/github/excel-to-pdf/src/test/resources/com/github/zhangchunsheng/excel2pdf/sample1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterzhang/dev/suomitek/git/beijing-tower-friday/friday-core/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBC5C84-8D84-9045-9DE4-E438589BBCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC200962-557A-C840-A49C-FFC22FBF0499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产调拨明细表" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>跨分公司固定资产调拨申请单</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>${p4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调入单位主管领导签字：	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111111111111111111111111111111111111111111111111111111	</t>
   </si>
 </sst>
 </file>
@@ -218,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,9 +244,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,17 +280,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,7 +599,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -603,26 +618,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="24"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
@@ -631,7 +646,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -661,124 +676,146 @@
       <c r="J3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14">
+    <row r="4" spans="1:12" ht="105">
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="B4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1">
       <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1">
       <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1">
       <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15">
         <f>SUM(G4:G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
@@ -786,17 +823,17 @@
     <row r="13" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="15">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="2" t="s">
         <v>26</v>
       </c>
@@ -804,14 +841,14 @@
     <row r="16" spans="1:12" s="2" customFormat="1" ht="14"/>
     <row r="17" spans="2:7" s="2" customFormat="1" ht="14"/>
     <row r="18" spans="2:7" s="2" customFormat="1" ht="15">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="F18" s="15" t="s">
+      <c r="C18" s="22"/>
+      <c r="F18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
